--- a/Addensanti_py.xlsx
+++ b/Addensanti_py.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39338\Addensanti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CB477F-EEE6-4378-A261-51690B8E5395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049A8725-BDDE-4214-83E7-72F20C99F057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -697,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,267 +730,267 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>0.33300000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="9">
-        <v>0.66600000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E2" s="12">
-        <v>5760</v>
+        <v>7050</v>
       </c>
       <c r="F2" s="10">
-        <v>0.48450946643717763</v>
+        <v>0.35719905586152589</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.33300000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D3" s="9">
         <v>0.33300000000000002</v>
       </c>
       <c r="E3" s="12">
-        <v>9750</v>
+        <v>7200</v>
       </c>
       <c r="F3" s="10">
-        <v>0.44593461860854999</v>
+        <v>0.43391521197007421</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0.99900000000000011</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D4" s="9">
-        <v>0</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E4" s="12">
-        <v>13800</v>
+        <v>6810</v>
       </c>
       <c r="F4" s="10">
-        <v>0.4339152119700751</v>
+        <v>0.49999999999999933</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C5" s="3">
         <v>0.66600000000000004</v>
       </c>
       <c r="D5" s="9">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
-        <v>10800</v>
+        <v>8370</v>
       </c>
       <c r="F5" s="10">
-        <v>0.47435897435897445</v>
+        <v>0.37999999999999945</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>0.99900000000000011</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E6" s="12">
-        <v>7500</v>
+        <v>7080</v>
       </c>
       <c r="F6" s="10">
-        <v>0.36904761904761929</v>
+        <v>0.39676113360323839</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>0.66600000000000004</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>0.33300000000000002</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="E7" s="12">
-        <v>8400</v>
+        <v>5790</v>
       </c>
       <c r="F7" s="10">
-        <v>0.44472361809045258</v>
+        <v>0.54293381037567046</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>0.33300000000000002</v>
       </c>
       <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>0.66600000000000004</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
       <c r="E8" s="12">
-        <v>11910</v>
+        <v>6330</v>
       </c>
       <c r="F8" s="10">
-        <v>0.41625615763546819</v>
+        <v>0.46186440677966045</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="D9" s="9">
-        <v>0.99900000000000011</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
-        <v>6480</v>
+        <v>9330</v>
       </c>
       <c r="F9" s="10">
-        <v>0.50918635170603688</v>
+        <v>0.37340764331210141</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="C10" s="3">
         <v>0.33300000000000002</v>
       </c>
       <c r="D10" s="9">
-        <v>0.66600000000000004</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
-        <v>6750</v>
+        <v>7950</v>
       </c>
       <c r="F10" s="10">
-        <v>0.45324347093513073</v>
+        <v>0.36471518987341733</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>6330</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.35719905586152589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4272</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.56533575317604257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>9990</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.33720930232558155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="C13" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>6780</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.37999999999999923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E12" s="12">
-        <v>7050</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.35719905586152589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E13" s="12">
-        <v>7200</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.43391521197007421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.33300000000000002</v>
-      </c>
       <c r="D14" s="9">
-        <v>0.66600000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E14" s="12">
-        <v>6810</v>
+        <v>5610</v>
       </c>
       <c r="F14" s="10">
-        <v>0.49999999999999933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+        <v>0.49350649350649278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2">
@@ -1003,14 +1003,14 @@
         <v>0</v>
       </c>
       <c r="E15" s="12">
-        <v>8370</v>
+        <v>7500</v>
       </c>
       <c r="F15" s="10">
-        <v>0.37999999999999945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+        <v>0.39112903225806384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
@@ -1023,315 +1023,115 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="E16" s="12">
-        <v>7080</v>
+        <v>6510</v>
       </c>
       <c r="F16" s="10">
-        <v>0.39676113360323839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>0.39676113360323817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>5730</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.34032634032633946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
         <v>0.99900000000000011</v>
       </c>
-      <c r="E17" s="12">
-        <v>5790</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.54293381037567046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>8130</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.34976525821596161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="B19" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
         <v>0.66600000000000004</v>
       </c>
-      <c r="E18" s="12">
-        <v>6330</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.46186440677966045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
       <c r="E19" s="12">
-        <v>9330</v>
+        <v>6450</v>
       </c>
       <c r="F19" s="10">
-        <v>0.37340764331210141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>0.51848591549295708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D20" s="9">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
       <c r="E20" s="12">
-        <v>7950</v>
+        <v>5610</v>
       </c>
       <c r="F20" s="10">
-        <v>0.36471518987341733</v>
+        <v>0.4495798319327724</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>6330</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.35719905586152589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="E22" s="12">
-        <v>4272</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.56533575317604257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>6780</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.37999999999999923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E21" s="13">
         <v>5610</v>
       </c>
-      <c r="F24" s="10">
-        <v>0.49350649350649278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>7500</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.39112903225806384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E26" s="12">
-        <v>6510</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.39676113360323817</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>5730</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.34032634032633946</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.99900000000000011</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>8130</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.34976525821596161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="E29" s="12">
-        <v>6450</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.51848591549295708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="E30" s="12">
-        <v>5610</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.4495798319327724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E31" s="13">
-        <v>5610</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="F21" s="11">
         <v>0.40816326530612179</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1343,18 +1143,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1367,18 +1155,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1390,8 +1166,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
